--- a/experiments/optics-ajk/drone-sbert/0.2/prediction.xlsx
+++ b/experiments/optics-ajk/drone-sbert/0.2/prediction.xlsx
@@ -468,27 +468,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,17 +538,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,57 +608,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,17 +668,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,27 +698,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,37 +748,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,17 +798,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,97 +818,97 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,17 +938,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,97 +958,97 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,27 +1078,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,27 +1108,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,17 +1188,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,77 +1238,77 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,17 +1318,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,17 +1358,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,27 +1378,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,27 +1418,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,17 +1448,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,37 +1508,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,17 +1578,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,37 +1628,37 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,17 +1668,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,47 +1688,47 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,27 +1738,27 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,37 +1778,37 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,17 +1838,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,37 +1858,37 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,17 +1918,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,27 +1938,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,17 +1968,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,27 +1988,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,27 +2028,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,17 +2068,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,27 +2088,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,17 +2168,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,67 +2258,67 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,157 +2328,157 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,47 +2488,47 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,17 +2538,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,27 +2558,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,137 +2588,137 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,87 +2748,87 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,17 +2838,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,17 +2858,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,17 +2888,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,17 +2938,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,17 +2978,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,3271 +3018,3271 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft. Please step farther away.</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Your palm is too far away from the aircraft. Please step closer.</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>57</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>69</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>69</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>81</v>
+        <v>115</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>92</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>92</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>93</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>108</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>116</v>
+        <v>46</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>118</v>
+        <v>24</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>122</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>123</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>123</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>123</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your palm is too close to the aircraft. Please step farther away.</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your palm is too far away from the aircraft. Please step closer.</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
